--- a/задание_15122020.xlsx
+++ b/задание_15122020.xlsx
@@ -17,17 +17,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1608067026" val="980" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1608067026" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1608067026" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1608067026"/>
+      <pm:revision xmlns:pm="smNativeData" day="1614267016" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1614267016" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1614267016" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1614267016"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
   <si>
     <t>passed</t>
   </si>
@@ -363,7 +363,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="14" formatCode="M/D/YYYY"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <name val="Calibri"/>
       <charset val="204"/>
@@ -372,7 +372,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1608067026" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614267016" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -388,7 +388,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1608067026" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614267016" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -405,7 +405,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1608067026" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614267016" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -422,7 +422,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1608067026" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614267016" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -439,7 +439,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1608067026" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614267016" ulstyle="none" kern="1">
             <pm:latin face="Verdana" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -456,7 +456,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1608067026" fgClr="865357" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614267016" fgClr="865357" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -473,7 +473,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1608067026" fgClr="006411" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614267016" fgClr="006411" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -490,7 +490,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1608067026" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614267016" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="240" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="240" lang="default" weight="bold"/>
@@ -506,7 +506,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1608067026" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614267016" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -523,7 +523,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1608067026" fgClr="006411" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614267016" fgClr="006411" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="240" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="240" lang="default" weight="bold"/>
@@ -540,7 +540,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1608067026" fgClr="DD0806" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614267016" fgClr="DD0806" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -557,7 +557,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1608067026" fgClr="0563C1" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614267016" fgClr="0563C1" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -573,7 +573,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1608067026" fgClr="FF0000" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614267016" fgClr="FF0000" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -590,7 +590,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1608067026" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614267016" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -607,7 +607,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1608067026" fgClr="00B050" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614267016" fgClr="00B050" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -623,7 +623,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1608067026" fgClr="00B050" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614267016" fgClr="00B050" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -640,7 +640,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1608067026" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614267016" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Verdana" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -657,7 +657,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1608067026" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614267016" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Verdana" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -672,7 +672,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1608067026" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614267016" ulstyle="none" kern="1">
             <pm:latin face="Calibri (Основной текст)" sz="280" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="280" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="280" lang="default" weight="bold"/>
@@ -688,7 +688,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1608067026" fgClr="FFFFFF" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614267016" fgClr="FFFFFF" ulstyle="none" kern="1">
             <pm:latin face="Verdana" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -705,10 +705,44 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1608067026" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614267016" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614267016" fgClr="FF0000" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
+            <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
+            <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b/>
+      <color rgb="FF00B050"/>
+      <sz val="12"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614267016" fgClr="00B050" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="240" lang="default" weight="bold"/>
+            <pm:cs face="Times New Roman" sz="240" lang="default"/>
+            <pm:ea face="SimSun" sz="240" lang="default"/>
           </pm:charSpec>
         </ext>
       </extLst>
@@ -733,7 +767,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1608067026" type="1" fgLvl="100" fgClr="00DDEBF7" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1614267016" type="1" fgLvl="100" fgClr="00DDEBF7" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -744,7 +778,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1608067026" type="1" fgLvl="100" fgClr="00203764" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1614267016" type="1" fgLvl="100" fgClr="00203764" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -755,7 +789,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1608067026" type="1" fgLvl="100" fgClr="00203764" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1614267016" type="1" fgLvl="100" fgClr="00203764" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -766,7 +800,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1608067026" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFF58C"/>
+            <pm:shade xmlns:pm="smNativeData" id="1614267016" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFF58C"/>
           </ext>
         </extLst>
       </patternFill>
@@ -777,7 +811,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1608067026" type="1" fgLvl="100" fgClr="00333399" bgLvl="0" bgClr="00003366"/>
+            <pm:shade xmlns:pm="smNativeData" id="1614267016" type="1" fgLvl="100" fgClr="00333399" bgLvl="0" bgClr="00003366"/>
           </ext>
         </extLst>
       </patternFill>
@@ -788,7 +822,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1608067026" type="1" fgLvl="100" fgClr="00333399" bgLvl="0" bgClr="00003366"/>
+            <pm:shade xmlns:pm="smNativeData" id="1614267016" type="1" fgLvl="100" fgClr="00333399" bgLvl="0" bgClr="00003366"/>
           </ext>
         </extLst>
       </patternFill>
@@ -799,7 +833,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1608067026" type="1" fgLvl="100" fgClr="00203764" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1614267016" type="1" fgLvl="100" fgClr="00203764" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -810,7 +844,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1608067026" type="1" fgLvl="100" fgClr="00203764" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1614267016" type="1" fgLvl="100" fgClr="00203764" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -821,7 +855,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1608067026" type="1" fgLvl="100" fgClr="00BDD7EE" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1614267016" type="1" fgLvl="100" fgClr="00BDD7EE" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -832,7 +866,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1608067026" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1614267016" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -854,7 +888,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608067026"/>
+          <pm:border xmlns:pm="smNativeData" id="1614267016"/>
         </ext>
       </extLst>
     </border>
@@ -873,7 +907,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608067026">
+          <pm:border xmlns:pm="smNativeData" id="1614267016">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -897,7 +931,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608067026">
+          <pm:border xmlns:pm="smNativeData" id="1614267016">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -920,7 +954,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608067026"/>
+          <pm:border xmlns:pm="smNativeData" id="1614267016"/>
         </ext>
       </extLst>
     </border>
@@ -939,7 +973,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608067026">
+          <pm:border xmlns:pm="smNativeData" id="1614267016">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -963,7 +997,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608067026"/>
+          <pm:border xmlns:pm="smNativeData" id="1614267016"/>
         </ext>
       </extLst>
     </border>
@@ -982,7 +1016,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608067026">
+          <pm:border xmlns:pm="smNativeData" id="1614267016">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1006,7 +1040,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608067026">
+          <pm:border xmlns:pm="smNativeData" id="1614267016">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1030,7 +1064,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608067026"/>
+          <pm:border xmlns:pm="smNativeData" id="1614267016"/>
         </ext>
       </extLst>
     </border>
@@ -1049,7 +1083,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608067026">
+          <pm:border xmlns:pm="smNativeData" id="1614267016">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1072,7 +1106,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608067026">
+          <pm:border xmlns:pm="smNativeData" id="1614267016">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1095,7 +1129,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608067026">
+          <pm:border xmlns:pm="smNativeData" id="1614267016">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1119,7 +1153,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1608067026"/>
+          <pm:border xmlns:pm="smNativeData" id="1614267016"/>
         </ext>
       </extLst>
     </border>
@@ -1128,7 +1162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1152,7 +1186,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1" textRotation="90"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:cellMargin xmlns:pm="smNativeData" id="1608067026" l="0" r="0" t="0" b="0" textRotation="3"/>
+          <pm:cellMargin xmlns:pm="smNativeData" id="1614267016" l="0" r="0" t="0" b="0" textRotation="3"/>
         </ext>
       </extLst>
     </xf>
@@ -1205,12 +1239,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:cellMargin xmlns:pm="smNativeData" id="1608067026" l="192" r="0" t="0" b="0" textRotation="0"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+          <pm:cellMargin xmlns:pm="smNativeData" id="1614267016" l="192" r="0" t="0" b="0" textRotation="0"/>
+        </ext>
+      </extLst>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1232,7 +1263,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1" textRotation="90"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:cellMargin xmlns:pm="smNativeData" id="1608067026" l="0" r="0" t="0" b="0" textRotation="3"/>
+          <pm:cellMargin xmlns:pm="smNativeData" id="1614267016" l="0" r="0" t="0" b="0" textRotation="3"/>
         </ext>
       </extLst>
     </xf>
@@ -1240,7 +1271,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1" textRotation="90"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:cellMargin xmlns:pm="smNativeData" id="1608067026" l="0" r="0" t="0" b="0" textRotation="3"/>
+          <pm:cellMargin xmlns:pm="smNativeData" id="1614267016" l="0" r="0" t="0" b="0" textRotation="3"/>
         </ext>
       </extLst>
     </xf>
@@ -1248,7 +1279,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1" textRotation="90"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:cellMargin xmlns:pm="smNativeData" id="1608067026" l="0" r="0" t="0" b="0" textRotation="3"/>
+          <pm:cellMargin xmlns:pm="smNativeData" id="1614267016" l="0" r="0" t="0" b="0" textRotation="3"/>
         </ext>
       </extLst>
     </xf>
@@ -1265,7 +1296,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1" textRotation="90"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:cellMargin xmlns:pm="smNativeData" id="1608067026" l="0" r="0" t="0" b="0" textRotation="3"/>
+          <pm:cellMargin xmlns:pm="smNativeData" id="1614267016" l="0" r="0" t="0" b="0" textRotation="3"/>
         </ext>
       </extLst>
     </xf>
@@ -1273,12 +1304,16 @@
       <alignment horizontal="center" vertical="top" wrapText="1" textRotation="90"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:cellMargin xmlns:pm="smNativeData" id="1608067026" l="0" r="0" t="0" b="0" textRotation="3"/>
+          <pm:cellMargin xmlns:pm="smNativeData" id="1614267016" l="0" r="0" t="0" b="0" textRotation="3"/>
         </ext>
       </extLst>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1288,10 +1323,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1608067026" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1614267016" count="1">
         <pm:charStyle name="Обычный" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1608067026" count="11">
+      <pm:colors xmlns:pm="smNativeData" id="1614267016" count="11">
         <pm:color name="Цвет 24" rgb="865357"/>
         <pm:color name="Цвет 25" rgb="006411"/>
         <pm:color name="Цвет 26" rgb="DD0806"/>
@@ -1604,7 +1639,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1608067026" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1614267016" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1613,16 +1648,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1608067026" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1608067026" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1608067026" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1608067026" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1614267016" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1614267016" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1614267016" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1614267016" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1608067026" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614267016" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1636,8 +1671,8 @@
   <dimension ref="A1:DT49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" zoomScale="60" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -1654,7 +1689,7 @@
     <col min="10" max="10" width="1.160714" hidden="1" customWidth="1">
       <extLst>
         <ext uri="smNativeData">
-          <pm:columnDef xmlns:pm="smNativeData" id="1608067026" min="10" max="10" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:columnDef xmlns:pm="smNativeData" id="1614267016" min="10" max="10" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </col>
@@ -1686,8 +1721,8 @@
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="14">
-        <f>COUNTIF(L$8:L$16,"failed")</f>
-        <v>0</v>
+        <f>COUNTIF(L$8:L$26,"failed")</f>
+        <v>1</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="14">
@@ -1732,7 +1767,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="15">
         <f>COUNTIF(L$8:L$16,"passed")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="15">
@@ -1775,7 +1810,9 @@
         <v>4</v>
       </c>
       <c r="K3" s="11"/>
-      <c r="L3" s="18"/>
+      <c r="L3" s="18" t="n">
+        <v>44252</v>
+      </c>
       <c r="M3" s="11"/>
       <c r="N3" s="18"/>
       <c r="O3" s="11"/>
@@ -1859,43 +1896,43 @@
     </row>
     <row r="6" spans="1:26" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="37" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="38" t="s">
+      <c r="F6" s="33"/>
+      <c r="G6" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="41"/>
+      <c r="J6" s="40"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="40" t="s">
+      <c r="L6" s="39" t="s">
         <v>16</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="40" t="s">
+      <c r="N6" s="39" t="s">
         <v>16</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="40"/>
+      <c r="P6" s="39"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="40"/>
+      <c r="R6" s="39"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="40"/>
+      <c r="T6" s="39"/>
       <c r="U6" s="11"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
@@ -1905,8 +1942,8 @@
     </row>
     <row r="7" spans="1:26" ht="127" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="39"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20" t="s">
         <v>17</v>
@@ -1914,20 +1951,20 @@
       <c r="F7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="42"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="41"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="40"/>
+      <c r="L7" s="39"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="40"/>
+      <c r="N7" s="39"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="40"/>
+      <c r="P7" s="39"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="40"/>
+      <c r="R7" s="39"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="40"/>
+      <c r="T7" s="39"/>
       <c r="U7" s="11"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
@@ -1940,7 +1977,7 @@
       <c r="B8" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="32" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1957,7 +1994,9 @@
       <c r="I8" s="17"/>
       <c r="J8" s="16"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="6"/>
       <c r="O8" s="11"/>
@@ -1978,7 +2017,7 @@
       <c r="B9" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="33"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
@@ -1993,7 +2032,9 @@
       <c r="I9" s="17"/>
       <c r="J9" s="16"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="6"/>
       <c r="O9" s="11"/>
@@ -2029,7 +2070,9 @@
       <c r="I10" s="17"/>
       <c r="J10" s="16"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="6"/>
       <c r="O10" s="11"/>
@@ -2065,7 +2108,9 @@
       <c r="I11" s="17"/>
       <c r="J11" s="16"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="6"/>
+      <c r="L11" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M11" s="11"/>
       <c r="N11" s="6"/>
       <c r="O11" s="11"/>
@@ -2101,7 +2146,9 @@
       <c r="I12" s="17"/>
       <c r="J12" s="16"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="6"/>
+      <c r="L12" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M12" s="11"/>
       <c r="N12" s="6"/>
       <c r="O12" s="11"/>
@@ -2137,119 +2184,121 @@
       <c r="I13" s="25"/>
       <c r="J13" s="24"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="28"/>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="29"/>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="29"/>
-      <c r="AJ13" s="28"/>
-      <c r="AK13" s="29"/>
-      <c r="AL13" s="28"/>
-      <c r="AM13" s="29"/>
-      <c r="AN13" s="28"/>
-      <c r="AO13" s="29"/>
-      <c r="AP13" s="28"/>
-      <c r="AQ13" s="29"/>
-      <c r="AR13" s="28"/>
-      <c r="AS13" s="29"/>
-      <c r="AT13" s="28"/>
-      <c r="AU13" s="29"/>
-      <c r="AV13" s="28"/>
-      <c r="AW13" s="29"/>
-      <c r="AX13" s="28"/>
-      <c r="AY13" s="29"/>
-      <c r="AZ13" s="28"/>
-      <c r="BA13" s="29"/>
-      <c r="BB13" s="28"/>
-      <c r="BC13" s="29"/>
-      <c r="BD13" s="28"/>
-      <c r="BE13" s="29"/>
-      <c r="BF13" s="28"/>
-      <c r="BG13" s="29"/>
-      <c r="BH13" s="28"/>
-      <c r="BI13" s="29"/>
-      <c r="BJ13" s="28"/>
-      <c r="BK13" s="29"/>
-      <c r="BL13" s="28"/>
-      <c r="BM13" s="29"/>
-      <c r="BN13" s="28"/>
-      <c r="BO13" s="29"/>
-      <c r="BP13" s="28"/>
-      <c r="BQ13" s="29"/>
-      <c r="BR13" s="28"/>
-      <c r="BS13" s="29"/>
-      <c r="BT13" s="28"/>
-      <c r="BU13" s="29"/>
-      <c r="BV13" s="28"/>
-      <c r="BW13" s="29"/>
-      <c r="BX13" s="28"/>
-      <c r="BY13" s="29"/>
-      <c r="BZ13" s="30"/>
-      <c r="CA13" s="29"/>
-      <c r="CB13" s="28"/>
-      <c r="CC13" s="29"/>
-      <c r="CD13" s="28"/>
-      <c r="CE13" s="29"/>
-      <c r="CF13" s="28"/>
-      <c r="CG13" s="29"/>
-      <c r="CH13" s="30"/>
-      <c r="CI13" s="29"/>
-      <c r="CJ13" s="28"/>
-      <c r="CK13" s="29"/>
-      <c r="CL13" s="28"/>
-      <c r="CM13" s="29"/>
-      <c r="CN13" s="28"/>
-      <c r="CO13" s="29"/>
-      <c r="CP13" s="28"/>
-      <c r="CQ13" s="29"/>
-      <c r="CR13" s="28"/>
-      <c r="CS13" s="29"/>
-      <c r="CT13" s="28"/>
-      <c r="CU13" s="29"/>
-      <c r="CV13" s="28"/>
-      <c r="CW13" s="29"/>
-      <c r="CX13" s="28"/>
-      <c r="CY13" s="27"/>
-      <c r="CZ13" s="28"/>
-      <c r="DA13" s="27"/>
-      <c r="DB13" s="28"/>
-      <c r="DC13" s="27"/>
-      <c r="DD13" s="28"/>
-      <c r="DE13" s="27"/>
-      <c r="DF13" s="28"/>
-      <c r="DG13" s="27"/>
-      <c r="DH13" s="28"/>
-      <c r="DI13" s="27"/>
-      <c r="DJ13" s="28"/>
-      <c r="DK13" s="28"/>
-      <c r="DL13" s="28"/>
-      <c r="DM13" s="28"/>
-      <c r="DN13" s="31"/>
-      <c r="DO13" s="28"/>
-      <c r="DP13" s="32"/>
-      <c r="DQ13" s="32"/>
-      <c r="DR13" s="32"/>
-      <c r="DS13" s="32"/>
-      <c r="DT13" s="32"/>
+      <c r="L13" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="26"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="28"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="28"/>
+      <c r="AL13" s="27"/>
+      <c r="AM13" s="28"/>
+      <c r="AN13" s="27"/>
+      <c r="AO13" s="28"/>
+      <c r="AP13" s="27"/>
+      <c r="AQ13" s="28"/>
+      <c r="AR13" s="27"/>
+      <c r="AS13" s="28"/>
+      <c r="AT13" s="27"/>
+      <c r="AU13" s="28"/>
+      <c r="AV13" s="27"/>
+      <c r="AW13" s="28"/>
+      <c r="AX13" s="27"/>
+      <c r="AY13" s="28"/>
+      <c r="AZ13" s="27"/>
+      <c r="BA13" s="28"/>
+      <c r="BB13" s="27"/>
+      <c r="BC13" s="28"/>
+      <c r="BD13" s="27"/>
+      <c r="BE13" s="28"/>
+      <c r="BF13" s="27"/>
+      <c r="BG13" s="28"/>
+      <c r="BH13" s="27"/>
+      <c r="BI13" s="28"/>
+      <c r="BJ13" s="27"/>
+      <c r="BK13" s="28"/>
+      <c r="BL13" s="27"/>
+      <c r="BM13" s="28"/>
+      <c r="BN13" s="27"/>
+      <c r="BO13" s="28"/>
+      <c r="BP13" s="27"/>
+      <c r="BQ13" s="28"/>
+      <c r="BR13" s="27"/>
+      <c r="BS13" s="28"/>
+      <c r="BT13" s="27"/>
+      <c r="BU13" s="28"/>
+      <c r="BV13" s="27"/>
+      <c r="BW13" s="28"/>
+      <c r="BX13" s="27"/>
+      <c r="BY13" s="28"/>
+      <c r="BZ13" s="29"/>
+      <c r="CA13" s="28"/>
+      <c r="CB13" s="27"/>
+      <c r="CC13" s="28"/>
+      <c r="CD13" s="27"/>
+      <c r="CE13" s="28"/>
+      <c r="CF13" s="27"/>
+      <c r="CG13" s="28"/>
+      <c r="CH13" s="29"/>
+      <c r="CI13" s="28"/>
+      <c r="CJ13" s="27"/>
+      <c r="CK13" s="28"/>
+      <c r="CL13" s="27"/>
+      <c r="CM13" s="28"/>
+      <c r="CN13" s="27"/>
+      <c r="CO13" s="28"/>
+      <c r="CP13" s="27"/>
+      <c r="CQ13" s="28"/>
+      <c r="CR13" s="27"/>
+      <c r="CS13" s="28"/>
+      <c r="CT13" s="27"/>
+      <c r="CU13" s="28"/>
+      <c r="CV13" s="27"/>
+      <c r="CW13" s="28"/>
+      <c r="CX13" s="27"/>
+      <c r="CY13" s="26"/>
+      <c r="CZ13" s="27"/>
+      <c r="DA13" s="26"/>
+      <c r="DB13" s="27"/>
+      <c r="DC13" s="26"/>
+      <c r="DD13" s="27"/>
+      <c r="DE13" s="26"/>
+      <c r="DF13" s="27"/>
+      <c r="DG13" s="26"/>
+      <c r="DH13" s="27"/>
+      <c r="DI13" s="26"/>
+      <c r="DJ13" s="27"/>
+      <c r="DK13" s="27"/>
+      <c r="DL13" s="27"/>
+      <c r="DM13" s="27"/>
+      <c r="DN13" s="30"/>
+      <c r="DO13" s="27"/>
+      <c r="DP13" s="31"/>
+      <c r="DQ13" s="31"/>
+      <c r="DR13" s="31"/>
+      <c r="DS13" s="31"/>
+      <c r="DT13" s="31"/>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="12"/>
@@ -2271,7 +2320,9 @@
       <c r="I14" s="17"/>
       <c r="J14" s="16"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="6"/>
+      <c r="L14" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M14" s="11"/>
       <c r="N14" s="6"/>
       <c r="O14" s="11"/>
@@ -2292,7 +2343,7 @@
       <c r="B15" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="C15" s="33"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="4" t="s">
         <v>37</v>
       </c>
@@ -2307,7 +2358,9 @@
       <c r="I15" s="17"/>
       <c r="J15" s="16"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M15" s="11"/>
       <c r="N15" s="6"/>
       <c r="O15" s="11"/>
@@ -2343,7 +2396,9 @@
       <c r="I16" s="17"/>
       <c r="J16" s="16"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="6"/>
+      <c r="L16" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M16" s="11"/>
       <c r="N16" s="6"/>
       <c r="O16" s="11"/>
@@ -2364,7 +2419,7 @@
       <c r="B17" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -2381,7 +2436,9 @@
       <c r="I17" s="17"/>
       <c r="J17" s="16"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="6"/>
+      <c r="L17" s="43" t="s">
+        <v>1</v>
+      </c>
       <c r="M17" s="11"/>
       <c r="N17" s="6"/>
       <c r="O17" s="11"/>
@@ -2417,7 +2474,9 @@
       <c r="I18" s="17"/>
       <c r="J18" s="16"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="6"/>
+      <c r="L18" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M18" s="11"/>
       <c r="N18" s="6"/>
       <c r="O18" s="11"/>
@@ -2561,7 +2620,9 @@
       <c r="I22" s="17"/>
       <c r="J22" s="16"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="6"/>
+      <c r="L22" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M22" s="11"/>
       <c r="N22" s="6"/>
       <c r="O22" s="11"/>
@@ -2599,7 +2660,9 @@
       <c r="I23" s="17"/>
       <c r="J23" s="16"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="6"/>
+      <c r="L23" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M23" s="11"/>
       <c r="N23" s="6"/>
       <c r="O23" s="11"/>
@@ -2671,7 +2734,9 @@
       <c r="I25" s="17"/>
       <c r="J25" s="16"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="6"/>
+      <c r="L25" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M25" s="11"/>
       <c r="N25" s="6"/>
       <c r="O25" s="11"/>
@@ -2707,7 +2772,9 @@
       <c r="I26" s="17"/>
       <c r="J26" s="16"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="6"/>
+      <c r="L26" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M26" s="11"/>
       <c r="N26" s="6"/>
       <c r="O26" s="11"/>
@@ -3319,7 +3386,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1608067026" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1614267016" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3328,16 +3395,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1608067026" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1608067026" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1608067026" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1608067026" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1614267016" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1614267016" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1614267016" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1614267016" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1608067026" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614267016" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
